--- a/static/hub/2019/November/26.xlsx
+++ b/static/hub/2019/November/26.xlsx
@@ -72,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -94,18 +94,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,11 +125,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,21 +157,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,14 +209,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -200,37 +229,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,18 +245,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -269,37 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,121 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,24 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -592,43 +580,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,6 +607,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -661,142 +667,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,70 +840,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1224,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:AF21"/>
+  <dimension ref="B2:AF48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="AH51" sqref="AH51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1346,7 +1337,7 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="15"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1356,7 +1347,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="15"/>
+      <c r="Q3" s="17"/>
       <c r="R3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1364,7 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="15"/>
+      <c r="AF3" s="17"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="2:32">
       <c r="B4" s="3" t="s">
@@ -1393,26 +1384,26 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17" t="s">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="22" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="26"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="19"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="2:32">
       <c r="B5" s="5"/>
@@ -1430,7 +1421,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1440,18 +1431,18 @@
       <c r="T5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="24"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="27"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="20"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="2:32">
       <c r="B6" s="7" t="s">
@@ -1463,7 +1454,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="15"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1473,24 +1464,24 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="20" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="28"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="25"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="2:32">
       <c r="B7" s="7" t="s">
@@ -1525,7 +1516,7 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="15"/>
+      <c r="AF7" s="17"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="2:32">
       <c r="B8" s="7" t="s">
@@ -1560,7 +1551,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="15"/>
+      <c r="AF8" s="17"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="2:32">
       <c r="B9" s="7" t="s">
@@ -1595,243 +1586,319 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="15"/>
+      <c r="AF9" s="17"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="2:32">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="29"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="19"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="2:32">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="30"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="20"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="2:32">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="2:32">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="2:32">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1">
+        <v>11</v>
+      </c>
+      <c r="M14" s="1">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1">
+        <v>13</v>
+      </c>
+      <c r="O14" s="1">
+        <v>14</v>
+      </c>
+      <c r="P14" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>16</v>
+      </c>
+      <c r="R14" s="1">
+        <v>17</v>
+      </c>
+      <c r="S14" s="1">
+        <v>18</v>
+      </c>
+      <c r="T14" s="1">
+        <v>19</v>
+      </c>
+      <c r="U14" s="1">
+        <v>20</v>
+      </c>
+      <c r="V14" s="1">
+        <v>21</v>
+      </c>
+      <c r="W14" s="1">
+        <v>22</v>
+      </c>
+      <c r="X14" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="2:32">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
+      <c r="B15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="18"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="2:32">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="14"/>
+      <c r="B16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="23"/>
+    </row>
+    <row r="17" spans="2:32">
+      <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1846,77 +1913,1095 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="24"/>
+    </row>
+    <row r="18" spans="2:32">
+      <c r="B18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="18"/>
+    </row>
+    <row r="19" spans="2:32">
+      <c r="B19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="18"/>
+    </row>
+    <row r="20" spans="2:32">
+      <c r="B20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="18"/>
+    </row>
+    <row r="21" spans="2:32">
+      <c r="B21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="18"/>
+    </row>
+    <row r="22" spans="2:32">
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="23"/>
+    </row>
+    <row r="23" spans="2:32">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="24"/>
+    </row>
+    <row r="27" spans="2:32">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1">
+        <v>9</v>
+      </c>
+      <c r="K27" s="1">
+        <v>10</v>
+      </c>
+      <c r="L27" s="1">
+        <v>11</v>
+      </c>
+      <c r="M27" s="1">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1">
+        <v>13</v>
+      </c>
+      <c r="O27" s="1">
+        <v>14</v>
+      </c>
+      <c r="P27" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>16</v>
+      </c>
+      <c r="R27" s="1">
+        <v>17</v>
+      </c>
+      <c r="S27" s="1">
+        <v>18</v>
+      </c>
+      <c r="T27" s="1">
+        <v>19</v>
+      </c>
+      <c r="U27" s="1">
+        <v>20</v>
+      </c>
+      <c r="V27" s="1">
+        <v>21</v>
+      </c>
+      <c r="W27" s="1">
+        <v>22</v>
+      </c>
+      <c r="X27" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32">
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="18"/>
+    </row>
+    <row r="29" spans="2:32">
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="19"/>
+    </row>
+    <row r="30" spans="2:32">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="20"/>
+    </row>
+    <row r="31" spans="2:32">
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="25"/>
+    </row>
+    <row r="32" spans="2:32">
+      <c r="B32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="17"/>
+    </row>
+    <row r="33" spans="2:32">
+      <c r="B33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="17"/>
+    </row>
+    <row r="34" spans="2:32">
+      <c r="B34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="17"/>
+    </row>
+    <row r="35" spans="2:32">
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="19"/>
+    </row>
+    <row r="36" spans="2:32">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="20"/>
+    </row>
+    <row r="39" spans="2:32">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9</v>
+      </c>
+      <c r="K39" s="1">
+        <v>10</v>
+      </c>
+      <c r="L39" s="1">
+        <v>11</v>
+      </c>
+      <c r="M39" s="1">
+        <v>12</v>
+      </c>
+      <c r="N39" s="1">
+        <v>13</v>
+      </c>
+      <c r="O39" s="1">
+        <v>14</v>
+      </c>
+      <c r="P39" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>16</v>
+      </c>
+      <c r="R39" s="1">
+        <v>17</v>
+      </c>
+      <c r="S39" s="1">
+        <v>18</v>
+      </c>
+      <c r="T39" s="1">
+        <v>19</v>
+      </c>
+      <c r="U39" s="1">
+        <v>20</v>
+      </c>
+      <c r="V39" s="1">
+        <v>21</v>
+      </c>
+      <c r="W39" s="1">
+        <v>22</v>
+      </c>
+      <c r="X39" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32">
+      <c r="B40" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="18"/>
+    </row>
+    <row r="41" spans="2:32">
+      <c r="B41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="10"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="23"/>
+    </row>
+    <row r="42" spans="2:32">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="U42" s="13"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="24"/>
+    </row>
+    <row r="43" spans="2:32">
+      <c r="B43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="18"/>
+    </row>
+    <row r="44" spans="2:32">
+      <c r="B44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="18"/>
+    </row>
+    <row r="45" spans="2:32">
+      <c r="B45" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="18"/>
+    </row>
+    <row r="46" spans="2:32">
+      <c r="B46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="18"/>
+    </row>
+    <row r="47" spans="2:32">
+      <c r="B47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="19"/>
+    </row>
+    <row r="48" spans="2:32">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="56">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:Q3"/>
@@ -1928,9 +3013,51 @@
     <mergeCell ref="B7:AF7"/>
     <mergeCell ref="B8:AF8"/>
     <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:AF15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:AF18"/>
+    <mergeCell ref="B19:AF19"/>
+    <mergeCell ref="B20:AF20"/>
+    <mergeCell ref="B21:AF21"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:AF28"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:AF31"/>
+    <mergeCell ref="B32:AF32"/>
+    <mergeCell ref="B33:AF33"/>
+    <mergeCell ref="B34:AF34"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:AF40"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:AF43"/>
+    <mergeCell ref="B44:AF44"/>
+    <mergeCell ref="B45:AF45"/>
+    <mergeCell ref="B46:AF46"/>
     <mergeCell ref="B10:AF11"/>
     <mergeCell ref="B4:Q5"/>
     <mergeCell ref="U4:AF5"/>
+    <mergeCell ref="B16:Q17"/>
+    <mergeCell ref="U16:AF17"/>
+    <mergeCell ref="B22:AF23"/>
+    <mergeCell ref="B29:Q30"/>
+    <mergeCell ref="U29:AF30"/>
+    <mergeCell ref="B35:AF36"/>
+    <mergeCell ref="B41:Q42"/>
+    <mergeCell ref="U41:AF42"/>
+    <mergeCell ref="B47:AF48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
